--- a/1_Result_Tables/1_Naive_Forecaster_Outputs/Results_AVERAGE_10_9/Real_and_Predicted_QoQ_AVERAGE_10_9.xlsx
+++ b/1_Result_Tables/1_Naive_Forecaster_Outputs/Results_AVERAGE_10_9/Real_and_Predicted_QoQ_AVERAGE_10_9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="374">
   <si>
     <t>qoq_1988_04</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>qoq_2025_02</t>
+  </si>
+  <si>
+    <t>qoq_2025_03</t>
   </si>
   <si>
     <t>1970-Q2</t>
@@ -1131,6 +1134,9 @@
   <si>
     <t>2027-Q4</t>
   </si>
+  <si>
+    <t>2028-Q1</t>
+  </si>
 </sst>
 </file>
 
@@ -1487,13 +1493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ES232"/>
+  <dimension ref="A1:ET233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:149">
+    <row r="1" spans="1:150">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1938,10 +1944,13 @@
       <c r="ES1" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="ET1" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="2" spans="1:149">
+    <row r="2" spans="1:150">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>3.949077682514932</v>
@@ -2387,10 +2396,13 @@
       <c r="ES2">
         <v>3.949077682514924</v>
       </c>
+      <c r="ET2">
+        <v>3.949077682514924</v>
+      </c>
     </row>
-    <row r="3" spans="1:149">
+    <row r="3" spans="1:150">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3">
         <v>1.874531367158205</v>
@@ -2836,10 +2848,13 @@
       <c r="ES3">
         <v>1.874531367158206</v>
       </c>
+      <c r="ET3">
+        <v>1.874531367158206</v>
+      </c>
     </row>
-    <row r="4" spans="1:149">
+    <row r="4" spans="1:150">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4">
         <v>0.858684985279704</v>
@@ -3285,10 +3300,13 @@
       <c r="ES4">
         <v>0.8586849852796945</v>
       </c>
+      <c r="ET4">
+        <v>0.8586849852796945</v>
+      </c>
     </row>
-    <row r="5" spans="1:149">
+    <row r="5" spans="1:150">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B5">
         <v>-1.945998540501099</v>
@@ -3734,10 +3752,13 @@
       <c r="ES5">
         <v>-1.945998540501086</v>
       </c>
+      <c r="ET5">
+        <v>-1.945998540501086</v>
+      </c>
     </row>
-    <row r="6" spans="1:149">
+    <row r="6" spans="1:150">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6">
         <v>2.133465641280079</v>
@@ -4183,10 +4204,13 @@
       <c r="ES6">
         <v>2.133465641280074</v>
       </c>
+      <c r="ET6">
+        <v>2.133465641280074</v>
+      </c>
     </row>
-    <row r="7" spans="1:149">
+    <row r="7" spans="1:150">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7">
         <v>1.700267184843334</v>
@@ -4632,10 +4656,13 @@
       <c r="ES7">
         <v>1.700267184843332</v>
       </c>
+      <c r="ET7">
+        <v>1.700267184843332</v>
+      </c>
     </row>
-    <row r="8" spans="1:149">
+    <row r="8" spans="1:150">
       <c r="A8" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B8">
         <v>-0.09553379508001725</v>
@@ -5081,10 +5108,13 @@
       <c r="ES8">
         <v>-0.09553379508001679</v>
       </c>
+      <c r="ET8">
+        <v>-0.09553379508001679</v>
+      </c>
     </row>
-    <row r="9" spans="1:149">
+    <row r="9" spans="1:150">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B9">
         <v>0.09562514941430368</v>
@@ -5530,10 +5560,13 @@
       <c r="ES9">
         <v>0.0956251494143032</v>
       </c>
+      <c r="ET9">
+        <v>0.0956251494143032</v>
+      </c>
     </row>
-    <row r="10" spans="1:149">
+    <row r="10" spans="1:150">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B10">
         <v>1.647957965130165</v>
@@ -5979,10 +6012,13 @@
       <c r="ES10">
         <v>1.647957965130175</v>
       </c>
+      <c r="ET10">
+        <v>1.647957965130175</v>
+      </c>
     </row>
-    <row r="11" spans="1:149">
+    <row r="11" spans="1:150">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11">
         <v>2.326127819548863</v>
@@ -6428,10 +6464,13 @@
       <c r="ES11">
         <v>2.32612781954886</v>
       </c>
+      <c r="ET11">
+        <v>2.32612781954886</v>
+      </c>
     </row>
-    <row r="12" spans="1:149">
+    <row r="12" spans="1:150">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12">
         <v>1.538461538461551</v>
@@ -6877,10 +6916,13 @@
       <c r="ES12">
         <v>1.538461538461537</v>
       </c>
+      <c r="ET12">
+        <v>1.538461538461537</v>
+      </c>
     </row>
-    <row r="13" spans="1:149">
+    <row r="13" spans="1:150">
       <c r="A13" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13">
         <v>1.447308909995468</v>
@@ -7326,10 +7368,13 @@
       <c r="ES13">
         <v>1.447308909995474</v>
       </c>
+      <c r="ET13">
+        <v>1.447308909995474</v>
+      </c>
     </row>
-    <row r="14" spans="1:149">
+    <row r="14" spans="1:150">
       <c r="A14" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14">
         <v>0.6910387873383952</v>
@@ -7775,10 +7820,13 @@
       <c r="ES14">
         <v>0.6910387873384027</v>
       </c>
+      <c r="ET14">
+        <v>0.6910387873384027</v>
+      </c>
     </row>
-    <row r="15" spans="1:149">
+    <row r="15" spans="1:150">
       <c r="A15" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B15">
         <v>0.3542174009298183</v>
@@ -8224,10 +8272,13 @@
       <c r="ES15">
         <v>0.3542174009298003</v>
       </c>
+      <c r="ET15">
+        <v>0.3542174009298003</v>
+      </c>
     </row>
-    <row r="16" spans="1:149">
+    <row r="16" spans="1:150">
       <c r="A16" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16">
         <v>0.2206044562100178</v>
@@ -8673,10 +8724,13 @@
       <c r="ES16">
         <v>0.2206044562100243</v>
       </c>
+      <c r="ET16">
+        <v>0.2206044562100243</v>
+      </c>
     </row>
-    <row r="17" spans="1:149">
+    <row r="17" spans="1:150">
       <c r="A17" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B17">
         <v>0.836451683909317</v>
@@ -9122,10 +9176,13 @@
       <c r="ES17">
         <v>0.8364516839093197</v>
       </c>
+      <c r="ET17">
+        <v>0.8364516839093197</v>
+      </c>
     </row>
-    <row r="18" spans="1:149">
+    <row r="18" spans="1:150">
       <c r="A18" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B18">
         <v>-0.08731717965510417</v>
@@ -9571,10 +9628,13 @@
       <c r="ES18">
         <v>-0.08731717965510374</v>
       </c>
+      <c r="ET18">
+        <v>-0.08731717965510374</v>
+      </c>
     </row>
-    <row r="19" spans="1:149">
+    <row r="19" spans="1:150">
       <c r="A19" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19">
         <v>0.02184837229626569</v>
@@ -10020,10 +10080,13 @@
       <c r="ES19">
         <v>0.02184837229626946</v>
       </c>
+      <c r="ET19">
+        <v>0.02184837229626946</v>
+      </c>
     </row>
-    <row r="20" spans="1:149">
+    <row r="20" spans="1:150">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B20">
         <v>-1.245085190039327</v>
@@ -10469,10 +10532,13 @@
       <c r="ES20">
         <v>-1.245085190039323</v>
       </c>
+      <c r="ET20">
+        <v>-1.245085190039323</v>
+      </c>
     </row>
-    <row r="21" spans="1:149">
+    <row r="21" spans="1:150">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21">
         <v>-0.5750940057509247</v>
@@ -10918,10 +10984,13 @@
       <c r="ES21">
         <v>-0.5750940057509286</v>
       </c>
+      <c r="ET21">
+        <v>-0.5750940057509286</v>
+      </c>
     </row>
-    <row r="22" spans="1:149">
+    <row r="22" spans="1:150">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B22">
         <v>-0.5116796440489535</v>
@@ -11367,10 +11436,13 @@
       <c r="ES22">
         <v>-0.5116796440489622</v>
       </c>
+      <c r="ET22">
+        <v>-0.5116796440489622</v>
+      </c>
     </row>
-    <row r="23" spans="1:149">
+    <row r="23" spans="1:150">
       <c r="A23" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B23">
         <v>1.095706618962428</v>
@@ -11816,10 +11888,13 @@
       <c r="ES23">
         <v>1.09570661896244</v>
       </c>
+      <c r="ET23">
+        <v>1.09570661896244</v>
+      </c>
     </row>
-    <row r="24" spans="1:149">
+    <row r="24" spans="1:150">
       <c r="A24" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B24">
         <v>1.968591019685915</v>
@@ -12265,10 +12340,13 @@
       <c r="ES24">
         <v>1.968591019685906</v>
       </c>
+      <c r="ET24">
+        <v>1.968591019685906</v>
+      </c>
     </row>
-    <row r="25" spans="1:149">
+    <row r="25" spans="1:150">
       <c r="A25" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25">
         <v>0.8676789587852438</v>
@@ -12714,10 +12792,13 @@
       <c r="ES25">
         <v>0.8676789587852535</v>
       </c>
+      <c r="ET25">
+        <v>0.8676789587852535</v>
+      </c>
     </row>
-    <row r="26" spans="1:149">
+    <row r="26" spans="1:150">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26">
         <v>1.505376344086038</v>
@@ -13163,10 +13244,13 @@
       <c r="ES26">
         <v>1.505376344086021</v>
       </c>
+      <c r="ET26">
+        <v>1.505376344086021</v>
+      </c>
     </row>
-    <row r="27" spans="1:149">
+    <row r="27" spans="1:150">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B27">
         <v>0.02118644067795302</v>
@@ -13612,10 +13696,13 @@
       <c r="ES27">
         <v>0.02118644067797147</v>
       </c>
+      <c r="ET27">
+        <v>0.02118644067797147</v>
+      </c>
     </row>
-    <row r="28" spans="1:149">
+    <row r="28" spans="1:150">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B28">
         <v>1.864011861893669</v>
@@ -14061,10 +14148,13 @@
       <c r="ES28">
         <v>1.864011861893672</v>
       </c>
+      <c r="ET28">
+        <v>1.864011861893672</v>
+      </c>
     </row>
-    <row r="29" spans="1:149">
+    <row r="29" spans="1:150">
       <c r="A29" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B29">
         <v>0.873362445414845</v>
@@ -14510,10 +14600,13 @@
       <c r="ES29">
         <v>0.873362445414832</v>
       </c>
+      <c r="ET29">
+        <v>0.873362445414832</v>
+      </c>
     </row>
-    <row r="30" spans="1:149">
+    <row r="30" spans="1:150">
       <c r="A30" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B30">
         <v>0.5565862708719869</v>
@@ -14959,10 +15052,13 @@
       <c r="ES30">
         <v>0.5565862708719943</v>
       </c>
+      <c r="ET30">
+        <v>0.5565862708719943</v>
+      </c>
     </row>
-    <row r="31" spans="1:149">
+    <row r="31" spans="1:150">
       <c r="A31" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B31">
         <v>-0.04100041000410335</v>
@@ -15408,10 +15504,13 @@
       <c r="ES31">
         <v>-0.04100041000411042</v>
       </c>
+      <c r="ET31">
+        <v>-0.04100041000411042</v>
+      </c>
     </row>
-    <row r="32" spans="1:149">
+    <row r="32" spans="1:150">
       <c r="A32" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B32">
         <v>1.722723543888443</v>
@@ -15857,10 +15956,13 @@
       <c r="ES32">
         <v>1.722723543888447</v>
       </c>
+      <c r="ET32">
+        <v>1.722723543888447</v>
+      </c>
     </row>
-    <row r="33" spans="1:149">
+    <row r="33" spans="1:150">
       <c r="A33" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B33">
         <v>0.4032258064516032</v>
@@ -16306,10 +16408,13 @@
       <c r="ES33">
         <v>0.4032258064516004</v>
       </c>
+      <c r="ET33">
+        <v>0.4032258064516004</v>
+      </c>
     </row>
-    <row r="34" spans="1:149">
+    <row r="34" spans="1:150">
       <c r="A34" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B34">
         <v>0.4216867469879438</v>
@@ -16755,10 +16860,13 @@
       <c r="ES34">
         <v>0.4216867469879588</v>
       </c>
+      <c r="ET34">
+        <v>0.4216867469879588</v>
+      </c>
     </row>
-    <row r="35" spans="1:149">
+    <row r="35" spans="1:150">
       <c r="A35" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B35">
         <v>1.299740051989609</v>
@@ -17204,10 +17312,13 @@
       <c r="ES35">
         <v>1.29974005198959</v>
       </c>
+      <c r="ET35">
+        <v>1.29974005198959</v>
+      </c>
     </row>
-    <row r="36" spans="1:149">
+    <row r="36" spans="1:150">
       <c r="A36" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B36">
         <v>1.164626924595339</v>
@@ -17653,10 +17764,13 @@
       <c r="ES36">
         <v>1.164626924595356</v>
       </c>
+      <c r="ET36">
+        <v>1.164626924595356</v>
+      </c>
     </row>
-    <row r="37" spans="1:149">
+    <row r="37" spans="1:150">
       <c r="A37" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B37">
         <v>0.1365853658536696</v>
@@ -18102,10 +18216,13 @@
       <c r="ES37">
         <v>0.1365853658536516</v>
       </c>
+      <c r="ET37">
+        <v>0.1365853658536516</v>
+      </c>
     </row>
-    <row r="38" spans="1:149">
+    <row r="38" spans="1:150">
       <c r="A38" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B38">
         <v>3.098207326578323</v>
@@ -18551,10 +18668,13 @@
       <c r="ES38">
         <v>3.098207326578328</v>
       </c>
+      <c r="ET38">
+        <v>3.098207326578328</v>
+      </c>
     </row>
-    <row r="39" spans="1:149">
+    <row r="39" spans="1:150">
       <c r="A39" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -19000,10 +19120,13 @@
       <c r="ES39">
         <v>0</v>
       </c>
+      <c r="ET39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:149">
+    <row r="40" spans="1:150">
       <c r="A40" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B40">
         <v>0.6237006237006345</v>
@@ -19449,10 +19572,13 @@
       <c r="ES40">
         <v>0.6237006237006341</v>
       </c>
+      <c r="ET40">
+        <v>0.6237006237006341</v>
+      </c>
     </row>
-    <row r="41" spans="1:149">
+    <row r="41" spans="1:150">
       <c r="A41" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B41">
         <v>0.7888805409466416</v>
@@ -19898,10 +20024,13 @@
       <c r="ES41">
         <v>0.7888805409466429</v>
       </c>
+      <c r="ET41">
+        <v>0.7888805409466429</v>
+      </c>
     </row>
-    <row r="42" spans="1:149">
+    <row r="42" spans="1:150">
       <c r="A42" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B42">
         <v>-0.6522549385016648</v>
@@ -20347,10 +20476,13 @@
       <c r="ES42">
         <v>-0.6522549385016704</v>
       </c>
+      <c r="ET42">
+        <v>-0.6522549385016704</v>
+      </c>
     </row>
-    <row r="43" spans="1:149">
+    <row r="43" spans="1:150">
       <c r="A43" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B43">
         <v>-0.4126805477396301</v>
@@ -20796,10 +20928,13 @@
       <c r="ES43">
         <v>-0.412680547739634</v>
       </c>
+      <c r="ET43">
+        <v>-0.412680547739634</v>
+      </c>
     </row>
-    <row r="44" spans="1:149">
+    <row r="44" spans="1:150">
       <c r="A44" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B44">
         <v>-0.1318515728009148</v>
@@ -21245,10 +21380,13 @@
       <c r="ES44">
         <v>-0.1318515728008974</v>
       </c>
+      <c r="ET44">
+        <v>-0.1318515728008974</v>
+      </c>
     </row>
-    <row r="45" spans="1:149">
+    <row r="45" spans="1:150">
       <c r="A45" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B45">
         <v>1.207091663523191</v>
@@ -21694,10 +21832,13 @@
       <c r="ES45">
         <v>1.207091663523183</v>
       </c>
+      <c r="ET45">
+        <v>1.207091663523183</v>
+      </c>
     </row>
-    <row r="46" spans="1:149">
+    <row r="46" spans="1:150">
       <c r="A46" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B46">
         <v>-0.2609019754006529</v>
@@ -22143,10 +22284,13 @@
       <c r="ES46">
         <v>-0.2609019754006576</v>
       </c>
+      <c r="ET46">
+        <v>-0.2609019754006576</v>
+      </c>
     </row>
-    <row r="47" spans="1:149">
+    <row r="47" spans="1:150">
       <c r="A47" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B47">
         <v>0.2802690582959607</v>
@@ -22592,10 +22736,13 @@
       <c r="ES47">
         <v>0.2802690582959688</v>
       </c>
+      <c r="ET47">
+        <v>0.2802690582959688</v>
+      </c>
     </row>
-    <row r="48" spans="1:149">
+    <row r="48" spans="1:150">
       <c r="A48" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B48">
         <v>-0.111794298490786</v>
@@ -23041,10 +23188,13 @@
       <c r="ES48">
         <v>-0.111794298490792</v>
       </c>
+      <c r="ET48">
+        <v>-0.111794298490792</v>
+      </c>
     </row>
-    <row r="49" spans="1:149">
+    <row r="49" spans="1:150">
       <c r="A49" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B49">
         <v>0.4103711994030905</v>
@@ -23490,10 +23640,13 @@
       <c r="ES49">
         <v>0.4103711994030944</v>
       </c>
+      <c r="ET49">
+        <v>0.4103711994030944</v>
+      </c>
     </row>
-    <row r="50" spans="1:149">
+    <row r="50" spans="1:150">
       <c r="A50" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B50">
         <v>-0.6316180568456113</v>
@@ -23939,10 +24092,13 @@
       <c r="ES50">
         <v>-0.6316180568456136</v>
       </c>
+      <c r="ET50">
+        <v>-0.6316180568456136</v>
+      </c>
     </row>
-    <row r="51" spans="1:149">
+    <row r="51" spans="1:150">
       <c r="A51" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B51">
         <v>-0.9534492428491423</v>
@@ -24388,10 +24544,13 @@
       <c r="ES51">
         <v>-0.9534492428491463</v>
       </c>
+      <c r="ET51">
+        <v>-0.9534492428491463</v>
+      </c>
     </row>
-    <row r="52" spans="1:149">
+    <row r="52" spans="1:150">
       <c r="A52" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B52">
         <v>0.2076255190638144</v>
@@ -24837,10 +24996,13 @@
       <c r="ES52">
         <v>0.20762551906381</v>
       </c>
+      <c r="ET52">
+        <v>0.20762551906381</v>
+      </c>
     </row>
-    <row r="53" spans="1:149">
+    <row r="53" spans="1:150">
       <c r="A53" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B53">
         <v>0.9229610096063111</v>
@@ -25286,10 +25448,13 @@
       <c r="ES53">
         <v>0.9229610096063218</v>
       </c>
+      <c r="ET53">
+        <v>0.9229610096063218</v>
+      </c>
     </row>
-    <row r="54" spans="1:149">
+    <row r="54" spans="1:150">
       <c r="A54" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B54">
         <v>1.06382978723405</v>
@@ -25735,10 +25900,13 @@
       <c r="ES54">
         <v>1.063829787234047</v>
       </c>
+      <c r="ET54">
+        <v>1.063829787234047</v>
+      </c>
     </row>
-    <row r="55" spans="1:149">
+    <row r="55" spans="1:150">
       <c r="A55" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55">
         <v>-0.2400738688827267</v>
@@ -26184,10 +26352,13 @@
       <c r="ES55">
         <v>-0.2400738688827284</v>
       </c>
+      <c r="ET55">
+        <v>-0.2400738688827284</v>
+      </c>
     </row>
-    <row r="56" spans="1:149">
+    <row r="56" spans="1:150">
       <c r="A56" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B56">
         <v>1.388374676045905</v>
@@ -26633,10 +26804,13 @@
       <c r="ES56">
         <v>1.388374676045919</v>
       </c>
+      <c r="ET56">
+        <v>1.388374676045919</v>
+      </c>
     </row>
-    <row r="57" spans="1:149">
+    <row r="57" spans="1:150">
       <c r="A57" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B57">
         <v>1.314588278254523</v>
@@ -27082,10 +27256,13 @@
       <c r="ES57">
         <v>1.314588278254514</v>
       </c>
+      <c r="ET57">
+        <v>1.314588278254514</v>
+      </c>
     </row>
-    <row r="58" spans="1:149">
+    <row r="58" spans="1:150">
       <c r="A58" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B58">
         <v>-1.567850063074441</v>
@@ -27531,10 +27708,13 @@
       <c r="ES58">
         <v>-1.567850063074441</v>
       </c>
+      <c r="ET58">
+        <v>-1.567850063074441</v>
+      </c>
     </row>
-    <row r="59" spans="1:149">
+    <row r="59" spans="1:150">
       <c r="A59" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B59">
         <v>2.727938484071772</v>
@@ -27980,10 +28160,13 @@
       <c r="ES59">
         <v>2.72793848407177</v>
       </c>
+      <c r="ET59">
+        <v>2.72793848407177</v>
+      </c>
     </row>
-    <row r="60" spans="1:149">
+    <row r="60" spans="1:150">
       <c r="A60" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B60">
         <v>0.8376403493138532</v>
@@ -28429,10 +28612,13 @@
       <c r="ES60">
         <v>0.8376403493138448</v>
       </c>
+      <c r="ET60">
+        <v>0.8376403493138448</v>
+      </c>
     </row>
-    <row r="61" spans="1:149">
+    <row r="61" spans="1:150">
       <c r="A61" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B61">
         <v>-0.5302226935312889</v>
@@ -28878,10 +29064,13 @@
       <c r="ES61">
         <v>-0.5302226935312794</v>
       </c>
+      <c r="ET61">
+        <v>-0.5302226935312794</v>
+      </c>
     </row>
-    <row r="62" spans="1:149">
+    <row r="62" spans="1:150">
       <c r="A62" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B62">
         <v>0.9772565742715041</v>
@@ -29327,10 +29516,13 @@
       <c r="ES62">
         <v>0.9772565742714947</v>
       </c>
+      <c r="ET62">
+        <v>0.9772565742714947</v>
+      </c>
     </row>
-    <row r="63" spans="1:149">
+    <row r="63" spans="1:150">
       <c r="A63" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B63">
         <v>1.30212915713531</v>
@@ -29776,10 +29968,13 @@
       <c r="ES63">
         <v>1.302129157135321</v>
       </c>
+      <c r="ET63">
+        <v>1.302129157135321</v>
+      </c>
     </row>
-    <row r="64" spans="1:149">
+    <row r="64" spans="1:150">
       <c r="A64" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B64">
         <v>0.6079555323953575</v>
@@ -30225,10 +30420,13 @@
       <c r="ES64">
         <v>0.6079555323953507</v>
       </c>
+      <c r="ET64">
+        <v>0.6079555323953507</v>
+      </c>
     </row>
-    <row r="65" spans="1:149">
+    <row r="65" spans="1:150">
       <c r="A65" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B65">
         <v>-0.5697513812154674</v>
@@ -30674,10 +30872,13 @@
       <c r="ES65">
         <v>-0.5697513812154668</v>
       </c>
+      <c r="ET65">
+        <v>-0.5697513812154668</v>
+      </c>
     </row>
-    <row r="66" spans="1:149">
+    <row r="66" spans="1:150">
       <c r="A66" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B66">
         <v>1.163396422990087</v>
@@ -31123,10 +31324,13 @@
       <c r="ES66">
         <v>1.163396422990089</v>
       </c>
+      <c r="ET66">
+        <v>1.163396422990089</v>
+      </c>
     </row>
-    <row r="67" spans="1:149">
+    <row r="67" spans="1:150">
       <c r="A67" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B67">
         <v>0.7380707174733948</v>
@@ -31572,10 +31776,13 @@
       <c r="ES67">
         <v>0.7380707174733993</v>
       </c>
+      <c r="ET67">
+        <v>0.7380707174733993</v>
+      </c>
     </row>
-    <row r="68" spans="1:149">
+    <row r="68" spans="1:150">
       <c r="A68" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B68">
         <v>0.9882433123189726</v>
@@ -32021,10 +32228,13 @@
       <c r="ES68">
         <v>0.9882433123189723</v>
       </c>
+      <c r="ET68">
+        <v>0.9882433123189723</v>
+      </c>
     </row>
-    <row r="69" spans="1:149">
+    <row r="69" spans="1:150">
       <c r="A69" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B69">
         <v>-2.513919352117431</v>
@@ -32470,10 +32680,13 @@
       <c r="ES69">
         <v>-2.51391935211743</v>
       </c>
+      <c r="ET69">
+        <v>-2.51391935211743</v>
+      </c>
     </row>
-    <row r="70" spans="1:149">
+    <row r="70" spans="1:150">
       <c r="A70" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B70">
         <v>2.249913464866736</v>
@@ -32919,10 +33132,13 @@
       <c r="ES70">
         <v>2.249913464866728</v>
       </c>
+      <c r="ET70">
+        <v>2.249913464866728</v>
+      </c>
     </row>
-    <row r="71" spans="1:149">
+    <row r="71" spans="1:150">
       <c r="A71" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B71">
         <v>0.7109004739336476</v>
@@ -33368,10 +33584,13 @@
       <c r="ES71">
         <v>0.710900473933649</v>
       </c>
+      <c r="ET71">
+        <v>0.710900473933649</v>
+      </c>
     </row>
-    <row r="72" spans="1:149">
+    <row r="72" spans="1:150">
       <c r="A72" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B72">
         <v>1.579831932773108</v>
@@ -33817,10 +34036,13 @@
       <c r="ES72">
         <v>1.579831932773116</v>
       </c>
+      <c r="ET72">
+        <v>1.579831932773116</v>
+      </c>
     </row>
-    <row r="73" spans="1:149">
+    <row r="73" spans="1:150">
       <c r="A73" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B73">
         <v>-0.8934480476505654</v>
@@ -34266,10 +34488,13 @@
       <c r="ES73">
         <v>-0.8934480476505656</v>
       </c>
+      <c r="ET73">
+        <v>-0.8934480476505656</v>
+      </c>
     </row>
-    <row r="74" spans="1:149">
+    <row r="74" spans="1:150">
       <c r="A74" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B74">
         <v>1.819699499165283</v>
@@ -34715,10 +34940,13 @@
       <c r="ES74">
         <v>1.819699499165286</v>
       </c>
+      <c r="ET74">
+        <v>1.819699499165286</v>
+      </c>
     </row>
-    <row r="75" spans="1:149">
+    <row r="75" spans="1:150">
       <c r="A75" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B75">
         <v>1.098540744384322</v>
@@ -35164,10 +35392,13 @@
       <c r="ES75">
         <v>1.098540744384312</v>
       </c>
+      <c r="ET75">
+        <v>1.098540744384312</v>
+      </c>
     </row>
-    <row r="76" spans="1:149">
+    <row r="76" spans="1:150">
       <c r="A76" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B76">
         <v>0.6941229168137555</v>
@@ -35613,10 +35844,13 @@
       <c r="ES76">
         <v>1.200129743756086</v>
       </c>
+      <c r="ET76">
+        <v>1.200129743756086</v>
+      </c>
     </row>
-    <row r="77" spans="1:149">
+    <row r="77" spans="1:150">
       <c r="A77" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B77">
         <v>0.6941229168137555</v>
@@ -36062,10 +36296,13 @@
       <c r="ES77">
         <v>1.025641025641024</v>
       </c>
+      <c r="ET77">
+        <v>1.025641025641024</v>
+      </c>
     </row>
-    <row r="78" spans="1:149">
+    <row r="78" spans="1:150">
       <c r="A78" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B78">
         <v>0.6941229168137555</v>
@@ -36511,10 +36748,13 @@
       <c r="ES78">
         <v>0.4124365482233533</v>
       </c>
+      <c r="ET78">
+        <v>0.4124365482233533</v>
+      </c>
     </row>
-    <row r="79" spans="1:149">
+    <row r="79" spans="1:150">
       <c r="A79" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B79">
         <v>0.6941229168137555</v>
@@ -36960,10 +37200,13 @@
       <c r="ES79">
         <v>0.9004739336492815</v>
       </c>
+      <c r="ET79">
+        <v>0.9004739336492815</v>
+      </c>
     </row>
-    <row r="80" spans="1:149">
+    <row r="80" spans="1:150">
       <c r="A80" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B80">
         <v>0.6941229168137555</v>
@@ -37409,10 +37652,13 @@
       <c r="ES80">
         <v>1.174260216063888</v>
       </c>
+      <c r="ET80">
+        <v>1.174260216063888</v>
+      </c>
     </row>
-    <row r="81" spans="1:149">
+    <row r="81" spans="1:150">
       <c r="A81" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B81">
         <v>0.6941229168137555</v>
@@ -37858,10 +38104,13 @@
       <c r="ES81">
         <v>2.073661405137726</v>
       </c>
+      <c r="ET81">
+        <v>2.073661405137726</v>
+      </c>
     </row>
-    <row r="82" spans="1:149">
+    <row r="82" spans="1:150">
       <c r="A82" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B82">
         <v>0.6941229168137555</v>
@@ -38307,10 +38556,13 @@
       <c r="ES82">
         <v>0.4851425106124861</v>
       </c>
+      <c r="ET82">
+        <v>0.4851425106124861</v>
+      </c>
     </row>
-    <row r="83" spans="1:149">
+    <row r="83" spans="1:150">
       <c r="A83" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B83">
         <v>0.6941229168137555</v>
@@ -38756,10 +39008,13 @@
       <c r="ES83">
         <v>2.112251056125549</v>
       </c>
+      <c r="ET83">
+        <v>2.112251056125549</v>
+      </c>
     </row>
-    <row r="84" spans="1:149">
+    <row r="84" spans="1:150">
       <c r="A84" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B84">
         <v>0.6941229168137555</v>
@@ -39205,10 +39460,13 @@
       <c r="ES84">
         <v>1.773049645390058</v>
       </c>
+      <c r="ET84">
+        <v>1.773049645390058</v>
+      </c>
     </row>
-    <row r="85" spans="1:149">
+    <row r="85" spans="1:150">
       <c r="A85" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B85">
         <v>0.6941229168137555</v>
@@ -39654,10 +39912,13 @@
       <c r="ES85">
         <v>2.758420441347268</v>
       </c>
+      <c r="ET85">
+        <v>2.758420441347268</v>
+      </c>
     </row>
-    <row r="86" spans="1:149">
+    <row r="86" spans="1:150">
       <c r="A86" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C86">
         <v>0.6977962488903545</v>
@@ -40100,10 +40361,13 @@
       <c r="ES86">
         <v>-0.4801581697500401</v>
       </c>
+      <c r="ET86">
+        <v>-0.4801581697500401</v>
+      </c>
     </row>
-    <row r="87" spans="1:149">
+    <row r="87" spans="1:150">
       <c r="A87" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D87">
         <v>0.7265532797071169</v>
@@ -40543,10 +40807,13 @@
       <c r="ES87">
         <v>-0.156094792110117</v>
       </c>
+      <c r="ET87">
+        <v>-0.156094792110117</v>
+      </c>
     </row>
-    <row r="88" spans="1:149">
+    <row r="88" spans="1:150">
       <c r="A88" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E88">
         <v>0.6689726032975558</v>
@@ -40983,10 +41250,13 @@
       <c r="ES88">
         <v>1.43547470153497</v>
       </c>
+      <c r="ET88">
+        <v>1.43547470153497</v>
+      </c>
     </row>
-    <row r="89" spans="1:149">
+    <row r="89" spans="1:150">
       <c r="A89" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F89">
         <v>1.010411931874227</v>
@@ -41420,10 +41690,13 @@
       <c r="ES89">
         <v>1.373125963289883</v>
       </c>
+      <c r="ET89">
+        <v>1.373125963289883</v>
+      </c>
     </row>
-    <row r="90" spans="1:149">
+    <row r="90" spans="1:150">
       <c r="A90" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G90">
         <v>0.9028466069939436</v>
@@ -41854,10 +42127,13 @@
       <c r="ES90">
         <v>-0.6219765031098669</v>
       </c>
+      <c r="ET90">
+        <v>-0.6219765031098669</v>
+      </c>
     </row>
-    <row r="91" spans="1:149">
+    <row r="91" spans="1:150">
       <c r="A91" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H91">
         <v>1.039122700114349</v>
@@ -42285,10 +42561,13 @@
       <c r="ES91">
         <v>-0.2364394993045921</v>
       </c>
+      <c r="ET91">
+        <v>-0.2364394993045921</v>
+      </c>
     </row>
-    <row r="92" spans="1:149">
+    <row r="92" spans="1:150">
       <c r="A92" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I92">
         <v>0.9296537578982891</v>
@@ -42713,10 +42992,13 @@
       <c r="ES92">
         <v>-0.2788233653980243</v>
       </c>
+      <c r="ET92">
+        <v>-0.2788233653980243</v>
+      </c>
     </row>
-    <row r="93" spans="1:149">
+    <row r="93" spans="1:150">
       <c r="A93" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J93">
         <v>1.230223668275899</v>
@@ -43138,10 +43420,13 @@
       <c r="ES93">
         <v>-0.7968684468055465</v>
       </c>
+      <c r="ET93">
+        <v>-0.7968684468055465</v>
+      </c>
     </row>
-    <row r="94" spans="1:149">
+    <row r="94" spans="1:150">
       <c r="A94" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K94">
         <v>1.225558682898375</v>
@@ -43560,10 +43845,13 @@
       <c r="ES94">
         <v>0.01409244644871071</v>
       </c>
+      <c r="ET94">
+        <v>0.01409244644871071</v>
+      </c>
     </row>
-    <row r="95" spans="1:149">
+    <row r="95" spans="1:150">
       <c r="A95" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L95">
         <v>1.391546652594672</v>
@@ -43979,10 +44267,13 @@
       <c r="ES95">
         <v>0.5917993518388075</v>
       </c>
+      <c r="ET95">
+        <v>0.5917993518388075</v>
+      </c>
     </row>
-    <row r="96" spans="1:149">
+    <row r="96" spans="1:150">
       <c r="A96" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M96">
         <v>1.382895392343677</v>
@@ -44395,10 +44686,13 @@
       <c r="ES96">
         <v>-0.08404538450763731</v>
       </c>
+      <c r="ET96">
+        <v>-0.08404538450763731</v>
+      </c>
     </row>
-    <row r="97" spans="1:149">
+    <row r="97" spans="1:150">
       <c r="A97" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N97">
         <v>1.220384266219</v>
@@ -44808,10 +45102,13 @@
       <c r="ES97">
         <v>1.415954016542836</v>
       </c>
+      <c r="ET97">
+        <v>1.415954016542836</v>
+      </c>
     </row>
-    <row r="98" spans="1:149">
+    <row r="98" spans="1:150">
       <c r="A98" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O98">
         <v>1.266097133135795</v>
@@ -45218,10 +45515,13 @@
       <c r="ES98">
         <v>0.5529444290848651</v>
       </c>
+      <c r="ET98">
+        <v>0.5529444290848651</v>
+      </c>
     </row>
-    <row r="99" spans="1:149">
+    <row r="99" spans="1:150">
       <c r="A99" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P99">
         <v>1.310921819859853</v>
@@ -45625,10 +45925,13 @@
       <c r="ES99">
         <v>0.5911465493538725</v>
       </c>
+      <c r="ET99">
+        <v>0.5911465493538725</v>
+      </c>
     </row>
-    <row r="100" spans="1:149">
+    <row r="100" spans="1:150">
       <c r="A100" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>1.189380007335642</v>
@@ -46029,10 +46332,13 @@
       <c r="ES100">
         <v>1.107011070110704</v>
       </c>
+      <c r="ET100">
+        <v>1.107011070110704</v>
+      </c>
     </row>
-    <row r="101" spans="1:149">
+    <row r="101" spans="1:150">
       <c r="A101" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R101">
         <v>0.9669164196629385</v>
@@ -46430,10 +46736,13 @@
       <c r="ES101">
         <v>-0.3919978372533202</v>
       </c>
+      <c r="ET101">
+        <v>-0.3919978372533202</v>
+      </c>
     </row>
-    <row r="102" spans="1:149">
+    <row r="102" spans="1:150">
       <c r="A102" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S102">
         <v>0.9046564641343317</v>
@@ -46828,10 +47137,13 @@
       <c r="ES102">
         <v>0.8006513773917809</v>
       </c>
+      <c r="ET102">
+        <v>0.8006513773917809</v>
+      </c>
     </row>
-    <row r="103" spans="1:149">
+    <row r="103" spans="1:150">
       <c r="A103" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T103">
         <v>0.5144912346401558</v>
@@ -47223,10 +47535,13 @@
       <c r="ES103">
         <v>0.2019386106623663</v>
       </c>
+      <c r="ET103">
+        <v>0.2019386106623663</v>
+      </c>
     </row>
-    <row r="104" spans="1:149">
+    <row r="104" spans="1:150">
       <c r="A104" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="U104">
         <v>0.4002556464150967</v>
@@ -47615,10 +47930,13 @@
       <c r="ES104">
         <v>0.04030632809349311</v>
       </c>
+      <c r="ET104">
+        <v>0.04030632809349311</v>
+      </c>
     </row>
-    <row r="105" spans="1:149">
+    <row r="105" spans="1:150">
       <c r="A105" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="V105">
         <v>0.196837000609057</v>
@@ -48004,10 +48322,13 @@
       <c r="ES105">
         <v>-0.7117915659414276</v>
       </c>
+      <c r="ET105">
+        <v>-0.7117915659414276</v>
+      </c>
     </row>
-    <row r="106" spans="1:149">
+    <row r="106" spans="1:150">
       <c r="A106" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="W106">
         <v>0.06611687940479796</v>
@@ -48390,10 +48711,13 @@
       <c r="ES106">
         <v>1.366157175706737</v>
       </c>
+      <c r="ET106">
+        <v>1.366157175706737</v>
+      </c>
     </row>
-    <row r="107" spans="1:149">
+    <row r="107" spans="1:150">
       <c r="A107" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X107">
         <v>0.2438250556392446</v>
@@ -48773,10 +49097,13 @@
       <c r="ES107">
         <v>0.3869762476648069</v>
       </c>
+      <c r="ET107">
+        <v>0.3869762476648069</v>
+      </c>
     </row>
-    <row r="108" spans="1:149">
+    <row r="108" spans="1:150">
       <c r="A108" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y108">
         <v>0.28010555977989</v>
@@ -49153,10 +49480,13 @@
       <c r="ES108">
         <v>0.9171872923035993</v>
       </c>
+      <c r="ET108">
+        <v>0.9171872923035993</v>
+      </c>
     </row>
-    <row r="109" spans="1:149">
+    <row r="109" spans="1:150">
       <c r="A109" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z109">
         <v>0.207454499574576</v>
@@ -49530,10 +49860,13 @@
       <c r="ES109">
         <v>-0.513698630136987</v>
       </c>
+      <c r="ET109">
+        <v>-0.513698630136987</v>
+      </c>
     </row>
-    <row r="110" spans="1:149">
+    <row r="110" spans="1:150">
       <c r="A110" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA110">
         <v>0.2734065588080321</v>
@@ -49904,10 +50237,13 @@
       <c r="ES110">
         <v>1.11214087117702</v>
       </c>
+      <c r="ET110">
+        <v>1.11214087117702</v>
+      </c>
     </row>
-    <row r="111" spans="1:149">
+    <row r="111" spans="1:150">
       <c r="A111" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AB111">
         <v>0.3098800914713071</v>
@@ -50275,10 +50611,13 @@
       <c r="ES111">
         <v>0.3928244074898483</v>
       </c>
+      <c r="ET111">
+        <v>0.3928244074898483</v>
+      </c>
     </row>
-    <row r="112" spans="1:149">
+    <row r="112" spans="1:150">
       <c r="A112" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AC112">
         <v>0.4302782422791499</v>
@@ -50643,10 +50982,13 @@
       <c r="ES112">
         <v>0.7434459371331592</v>
       </c>
+      <c r="ET112">
+        <v>0.7434459371331592</v>
+      </c>
     </row>
-    <row r="113" spans="1:149">
+    <row r="113" spans="1:150">
       <c r="A113" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AD113">
         <v>0.6078992789691108</v>
@@ -51008,10 +51350,13 @@
       <c r="ES113">
         <v>0.95805282237184</v>
       </c>
+      <c r="ET113">
+        <v>0.95805282237184</v>
+      </c>
     </row>
-    <row r="114" spans="1:149">
+    <row r="114" spans="1:150">
       <c r="A114" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AE114">
         <v>0.5211670451689333</v>
@@ -51370,10 +51715,13 @@
       <c r="ES114">
         <v>-0.4616568350859187</v>
       </c>
+      <c r="ET114">
+        <v>-0.4616568350859187</v>
+      </c>
     </row>
-    <row r="115" spans="1:149">
+    <row r="115" spans="1:150">
       <c r="A115" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF115">
         <v>0.4316829867807276</v>
@@ -51729,10 +52077,13 @@
       <c r="ES115">
         <v>0.4895645452202981</v>
       </c>
+      <c r="ET115">
+        <v>0.4895645452202981</v>
+      </c>
     </row>
-    <row r="116" spans="1:149">
+    <row r="116" spans="1:150">
       <c r="A116" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG116">
         <v>0.5660059002693849</v>
@@ -52085,10 +52436,13 @@
       <c r="ES116">
         <v>-0.02564102564102054</v>
       </c>
+      <c r="ET116">
+        <v>-0.02564102564102054</v>
+      </c>
     </row>
-    <row r="117" spans="1:149">
+    <row r="117" spans="1:150">
       <c r="A117" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AH117">
         <v>0.5293349251255315</v>
@@ -52438,10 +52792,13 @@
       <c r="ES117">
         <v>1.154142087714788</v>
       </c>
+      <c r="ET117">
+        <v>1.154142087714788</v>
+      </c>
     </row>
-    <row r="118" spans="1:149">
+    <row r="118" spans="1:150">
       <c r="A118" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AI118">
         <v>0.4513582675054688</v>
@@ -52788,10 +53145,13 @@
       <c r="ES118">
         <v>-0.1267748478701753</v>
       </c>
+      <c r="ET118">
+        <v>-0.1267748478701753</v>
+      </c>
     </row>
-    <row r="119" spans="1:149">
+    <row r="119" spans="1:150">
       <c r="A119" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AJ119">
         <v>0.4385008674071109</v>
@@ -53135,10 +53495,13 @@
       <c r="ES119">
         <v>1.370906321401369</v>
       </c>
+      <c r="ET119">
+        <v>1.370906321401369</v>
+      </c>
     </row>
-    <row r="120" spans="1:149">
+    <row r="120" spans="1:150">
       <c r="A120" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK120">
         <v>0.413380026209433</v>
@@ -53479,10 +53842,13 @@
       <c r="ES120">
         <v>0.4758327072376602</v>
       </c>
+      <c r="ET120">
+        <v>0.4758327072376602</v>
+      </c>
     </row>
-    <row r="121" spans="1:149">
+    <row r="121" spans="1:150">
       <c r="A121" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL121">
         <v>0.4658116210677422</v>
@@ -53820,10 +54186,13 @@
       <c r="ES121">
         <v>1.545363908275186</v>
       </c>
+      <c r="ET121">
+        <v>1.545363908275186</v>
+      </c>
     </row>
-    <row r="122" spans="1:149">
+    <row r="122" spans="1:150">
       <c r="A122" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM122">
         <v>0.4181062710828364</v>
@@ -54158,10 +54527,13 @@
       <c r="ES122">
         <v>0.7977417771232099</v>
       </c>
+      <c r="ET122">
+        <v>0.7977417771232099</v>
+      </c>
     </row>
-    <row r="123" spans="1:149">
+    <row r="123" spans="1:150">
       <c r="A123" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN123">
         <v>0.5384412360130529</v>
@@ -54493,10 +54865,13 @@
       <c r="ES123">
         <v>0.07305491294289818</v>
       </c>
+      <c r="ET123">
+        <v>0.07305491294289818</v>
+      </c>
     </row>
-    <row r="124" spans="1:149">
+    <row r="124" spans="1:150">
       <c r="A124" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO124">
         <v>0.5927126047459808</v>
@@ -54825,10 +55200,13 @@
       <c r="ES124">
         <v>-0.4258425599221248</v>
       </c>
+      <c r="ET124">
+        <v>-0.4258425599221248</v>
+      </c>
     </row>
-    <row r="125" spans="1:149">
+    <row r="125" spans="1:150">
       <c r="A125" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP125">
         <v>0.6706807844985097</v>
@@ -55154,10 +55532,13 @@
       <c r="ES125">
         <v>2.126099706744862</v>
       </c>
+      <c r="ET125">
+        <v>2.126099706744862</v>
+      </c>
     </row>
-    <row r="126" spans="1:149">
+    <row r="126" spans="1:150">
       <c r="A126" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AQ126">
         <v>0.4946468788584245</v>
@@ -55480,10 +55861,13 @@
       <c r="ES126">
         <v>-0.2512562814070277</v>
       </c>
+      <c r="ET126">
+        <v>-0.2512562814070277</v>
+      </c>
     </row>
-    <row r="127" spans="1:149">
+    <row r="127" spans="1:150">
       <c r="A127" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AR127">
         <v>0.3934033285524757</v>
@@ -55803,10 +56187,13 @@
       <c r="ES127">
         <v>0</v>
       </c>
+      <c r="ET127">
+        <v>0</v>
+      </c>
     </row>
-    <row r="128" spans="1:149">
+    <row r="128" spans="1:150">
       <c r="A128" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AS128">
         <v>0.3112293886097183</v>
@@ -56123,10 +56510,13 @@
       <c r="ES128">
         <v>-0.3118627803766404</v>
       </c>
+      <c r="ET128">
+        <v>-0.3118627803766404</v>
+      </c>
     </row>
-    <row r="129" spans="1:149">
+    <row r="129" spans="1:150">
       <c r="A129" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AT129">
         <v>0.455531728878449</v>
@@ -56440,10 +56830,13 @@
       <c r="ES129">
         <v>-0.4692576103958616</v>
       </c>
+      <c r="ET129">
+        <v>-0.4692576103958616</v>
+      </c>
     </row>
-    <row r="130" spans="1:149">
+    <row r="130" spans="1:150">
       <c r="A130" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AU130">
         <v>0.4247769310011789</v>
@@ -56754,10 +57147,13 @@
       <c r="ES130">
         <v>0.3868471953578426</v>
       </c>
+      <c r="ET130">
+        <v>0.3868471953578426</v>
+      </c>
     </row>
-    <row r="131" spans="1:149">
+    <row r="131" spans="1:150">
       <c r="A131" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AV131">
         <v>0.4582009035931788</v>
@@ -57065,10 +57461,13 @@
       <c r="ES131">
         <v>0.68641618497109</v>
       </c>
+      <c r="ET131">
+        <v>0.68641618497109</v>
+      </c>
     </row>
-    <row r="132" spans="1:149">
+    <row r="132" spans="1:150">
       <c r="A132" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AW132">
         <v>0.52853566461182</v>
@@ -57373,10 +57772,13 @@
       <c r="ES132">
         <v>-0.2750867121157804</v>
       </c>
+      <c r="ET132">
+        <v>-0.2750867121157804</v>
+      </c>
     </row>
-    <row r="133" spans="1:149">
+    <row r="133" spans="1:150">
       <c r="A133" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AX133">
         <v>0.4797652918828937</v>
@@ -57678,10 +58080,13 @@
       <c r="ES133">
         <v>-1.355241065003592</v>
       </c>
+      <c r="ET133">
+        <v>-1.355241065003592</v>
+      </c>
     </row>
-    <row r="134" spans="1:149">
+    <row r="134" spans="1:150">
       <c r="A134" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AY134">
         <v>0.5372636768001781</v>
@@ -57980,10 +58385,13 @@
       <c r="ES134">
         <v>0.1458966565349599</v>
       </c>
+      <c r="ET134">
+        <v>0.1458966565349599</v>
+      </c>
     </row>
-    <row r="135" spans="1:149">
+    <row r="135" spans="1:150">
       <c r="A135" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AZ135">
         <v>0.5446302776114635</v>
@@ -58279,10 +58687,13 @@
       <c r="ES135">
         <v>0.9105256768240864</v>
       </c>
+      <c r="ET135">
+        <v>0.9105256768240864</v>
+      </c>
     </row>
-    <row r="136" spans="1:149">
+    <row r="136" spans="1:150">
       <c r="A136" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BA136">
         <v>0.584225439885914</v>
@@ -58575,10 +58986,13 @@
       <c r="ES136">
         <v>0.1203079884504263</v>
       </c>
+      <c r="ET136">
+        <v>0.1203079884504263</v>
+      </c>
     </row>
-    <row r="137" spans="1:149">
+    <row r="137" spans="1:150">
       <c r="A137" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BB137">
         <v>0.4577438289507324</v>
@@ -58868,10 +59282,13 @@
       <c r="ES137">
         <v>-0.1562124489305401</v>
       </c>
+      <c r="ET137">
+        <v>-0.1562124489305401</v>
+      </c>
     </row>
-    <row r="138" spans="1:149">
+    <row r="138" spans="1:150">
       <c r="A138" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BC138">
         <v>0.4573018825487105</v>
@@ -59158,10 +59575,13 @@
       <c r="ES138">
         <v>0.589721988205554</v>
       </c>
+      <c r="ET138">
+        <v>0.589721988205554</v>
+      </c>
     </row>
-    <row r="139" spans="1:149">
+    <row r="139" spans="1:150">
       <c r="A139" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BD139">
         <v>0.3487543934966478</v>
@@ -59445,10 +59865,13 @@
       <c r="ES139">
         <v>-0.323043790380469</v>
       </c>
+      <c r="ET139">
+        <v>-0.323043790380469</v>
+      </c>
     </row>
-    <row r="140" spans="1:149">
+    <row r="140" spans="1:150">
       <c r="A140" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BE140">
         <v>0.255281228968523</v>
@@ -59729,10 +60152,13 @@
       <c r="ES140">
         <v>-0.03601008282319185</v>
       </c>
+      <c r="ET140">
+        <v>-0.03601008282319185</v>
+      </c>
     </row>
-    <row r="141" spans="1:149">
+    <row r="141" spans="1:150">
       <c r="A141" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="BF141">
         <v>0.196079099379528</v>
@@ -60010,10 +60436,13 @@
       <c r="ES141">
         <v>0.1560999039385152</v>
       </c>
+      <c r="ET141">
+        <v>0.1560999039385152</v>
+      </c>
     </row>
-    <row r="142" spans="1:149">
+    <row r="142" spans="1:150">
       <c r="A142" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="BG142">
         <v>0.09136230502795779</v>
@@ -60288,10 +60717,13 @@
       <c r="ES142">
         <v>0.5994485073732168</v>
       </c>
+      <c r="ET142">
+        <v>0.5994485073732168</v>
+      </c>
     </row>
-    <row r="143" spans="1:149">
+    <row r="143" spans="1:150">
       <c r="A143" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BH143">
         <v>0.06399930331093673</v>
@@ -60563,10 +60995,13 @@
       <c r="ES143">
         <v>0.7865570253843364</v>
       </c>
+      <c r="ET143">
+        <v>0.7865570253843364</v>
+      </c>
     </row>
-    <row r="144" spans="1:149">
+    <row r="144" spans="1:150">
       <c r="A144" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BI144">
         <v>0.07334711583925703</v>
@@ -60835,10 +61270,13 @@
       <c r="ES144">
         <v>0.3783847700130157</v>
       </c>
+      <c r="ET144">
+        <v>0.3783847700130157</v>
+      </c>
     </row>
-    <row r="145" spans="1:149">
+    <row r="145" spans="1:150">
       <c r="A145" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BJ145">
         <v>-6.049006130520729E-05</v>
@@ -61104,10 +61542,13 @@
       <c r="ES145">
         <v>1.119095299799744</v>
       </c>
+      <c r="ET145">
+        <v>1.119095299799744</v>
+      </c>
     </row>
-    <row r="146" spans="1:149">
+    <row r="146" spans="1:150">
       <c r="A146" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="BK146">
         <v>0.02123607104907491</v>
@@ -61370,10 +61811,13 @@
       <c r="ES146">
         <v>1.712488350419384</v>
       </c>
+      <c r="ET146">
+        <v>1.712488350419384</v>
+      </c>
     </row>
-    <row r="147" spans="1:149">
+    <row r="147" spans="1:150">
       <c r="A147" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="BL147">
         <v>0.08464689759247299</v>
@@ -61633,10 +62077,13 @@
       <c r="ES147">
         <v>0.7559271561104073</v>
       </c>
+      <c r="ET147">
+        <v>0.7559271561104073</v>
+      </c>
     </row>
-    <row r="148" spans="1:149">
+    <row r="148" spans="1:150">
       <c r="A148" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BM148">
         <v>0.139984886153875</v>
@@ -61893,10 +62340,13 @@
       <c r="ES148">
         <v>1.466409003069235</v>
       </c>
+      <c r="ET148">
+        <v>1.466409003069235</v>
+      </c>
     </row>
-    <row r="149" spans="1:149">
+    <row r="149" spans="1:150">
       <c r="A149" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BN149">
         <v>0.1403118607824707</v>
@@ -62150,10 +62600,13 @@
       <c r="ES149">
         <v>0.1344387183508742</v>
       </c>
+      <c r="ET149">
+        <v>0.1344387183508742</v>
+      </c>
     </row>
-    <row r="150" spans="1:149">
+    <row r="150" spans="1:150">
       <c r="A150" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BO150">
         <v>0.08973464093123734</v>
@@ -62404,10 +62857,13 @@
       <c r="ES150">
         <v>0.6601029313045462</v>
       </c>
+      <c r="ET150">
+        <v>0.6601029313045462</v>
+      </c>
     </row>
-    <row r="151" spans="1:149">
+    <row r="151" spans="1:150">
       <c r="A151" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="BP151">
         <v>0.1664705992650774</v>
@@ -62655,10 +63111,13 @@
       <c r="ES151">
         <v>0.5112815382905501</v>
       </c>
+      <c r="ET151">
+        <v>0.5112815382905501</v>
+      </c>
     </row>
-    <row r="152" spans="1:149">
+    <row r="152" spans="1:150">
       <c r="A152" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="BQ152">
         <v>0.139526942479626</v>
@@ -62903,10 +63362,13 @@
       <c r="ES152">
         <v>0.7409045670684369</v>
       </c>
+      <c r="ET152">
+        <v>0.7409045670684369</v>
+      </c>
     </row>
-    <row r="153" spans="1:149">
+    <row r="153" spans="1:150">
       <c r="A153" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BR153">
         <v>0.2663255547813869</v>
@@ -63148,10 +63610,13 @@
       <c r="ES153">
         <v>0.5817782656421527</v>
       </c>
+      <c r="ET153">
+        <v>0.5817782656421527</v>
+      </c>
     </row>
-    <row r="154" spans="1:149">
+    <row r="154" spans="1:150">
       <c r="A154" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BS154">
         <v>0.2927776881228313</v>
@@ -63390,10 +63855,13 @@
       <c r="ES154">
         <v>-0.3601440576230474</v>
       </c>
+      <c r="ET154">
+        <v>-0.3601440576230474</v>
+      </c>
     </row>
-    <row r="155" spans="1:149">
+    <row r="155" spans="1:150">
       <c r="A155" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="BT155">
         <v>0.3072286933641231</v>
@@ -63629,10 +64097,13 @@
       <c r="ES155">
         <v>-0.547645125958379</v>
       </c>
+      <c r="ET155">
+        <v>-0.547645125958379</v>
+      </c>
     </row>
-    <row r="156" spans="1:149">
+    <row r="156" spans="1:150">
       <c r="A156" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BU156">
         <v>0.3432290764637597</v>
@@ -63865,10 +64336,13 @@
       <c r="ES156">
         <v>-1.552863436123344</v>
       </c>
+      <c r="ET156">
+        <v>-1.552863436123344</v>
+      </c>
     </row>
-    <row r="157" spans="1:149">
+    <row r="157" spans="1:150">
       <c r="A157" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BV157">
         <v>0.3980203508502676</v>
@@ -64098,10 +64572,13 @@
       <c r="ES157">
         <v>-4.687325204161537</v>
       </c>
+      <c r="ET157">
+        <v>-4.687325204161537</v>
+      </c>
     </row>
-    <row r="158" spans="1:149">
+    <row r="158" spans="1:150">
       <c r="A158" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BW158">
         <v>0.5254668165067387</v>
@@ -64328,10 +64805,13 @@
       <c r="ES158">
         <v>0.2464788732394293</v>
       </c>
+      <c r="ET158">
+        <v>0.2464788732394293</v>
+      </c>
     </row>
-    <row r="159" spans="1:149">
+    <row r="159" spans="1:150">
       <c r="A159" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BX159">
         <v>0.611889475066235</v>
@@ -64555,10 +65035,13 @@
       <c r="ES159">
         <v>0.6205362369745945</v>
       </c>
+      <c r="ET159">
+        <v>0.6205362369745945</v>
+      </c>
     </row>
-    <row r="160" spans="1:149">
+    <row r="160" spans="1:150">
       <c r="A160" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="BY160">
         <v>0.6294852851196401</v>
@@ -64779,10 +65262,13 @@
       <c r="ES160">
         <v>0.7679776588317392</v>
       </c>
+      <c r="ET160">
+        <v>0.7679776588317392</v>
+      </c>
     </row>
-    <row r="161" spans="1:149">
+    <row r="161" spans="1:150">
       <c r="A161" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BZ161">
         <v>0.6624312234319696</v>
@@ -65000,10 +65486,13 @@
       <c r="ES161">
         <v>0.7274826789838449</v>
       </c>
+      <c r="ET161">
+        <v>0.7274826789838449</v>
+      </c>
     </row>
-    <row r="162" spans="1:149">
+    <row r="162" spans="1:150">
       <c r="A162" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="CA162">
         <v>0.6479710228601918</v>
@@ -65218,10 +65707,13 @@
       <c r="ES162">
         <v>2.166685773243151</v>
       </c>
+      <c r="ET162">
+        <v>2.166685773243151</v>
+      </c>
     </row>
-    <row r="163" spans="1:149">
+    <row r="163" spans="1:150">
       <c r="A163" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="CB163">
         <v>0.7441680314761443</v>
@@ -65433,10 +65925,13 @@
       <c r="ES163">
         <v>0.9649910233393171</v>
       </c>
+      <c r="ET163">
+        <v>0.9649910233393171</v>
+      </c>
     </row>
-    <row r="164" spans="1:149">
+    <row r="164" spans="1:150">
       <c r="A164" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="CC164">
         <v>0.6547901257702069</v>
@@ -65645,10 +66140,13 @@
       <c r="ES164">
         <v>0.6557012669481986</v>
       </c>
+      <c r="ET164">
+        <v>0.6557012669481986</v>
+      </c>
     </row>
-    <row r="165" spans="1:149">
+    <row r="165" spans="1:150">
       <c r="A165" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="CD165">
         <v>0.5383282916003549</v>
@@ -65854,10 +66352,13 @@
       <c r="ES165">
         <v>1.810754112840897</v>
       </c>
+      <c r="ET165">
+        <v>1.810754112840897</v>
+      </c>
     </row>
-    <row r="166" spans="1:149">
+    <row r="166" spans="1:150">
       <c r="A166" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="CE166">
         <v>0.1818297597035944</v>
@@ -66060,10 +66561,13 @@
       <c r="ES166">
         <v>0.2711202689513068</v>
       </c>
+      <c r="ET166">
+        <v>0.2711202689513068</v>
+      </c>
     </row>
-    <row r="167" spans="1:149">
+    <row r="167" spans="1:150">
       <c r="A167" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="CF167">
         <v>-0.2799684307986602</v>
@@ -66263,10 +66767,13 @@
       <c r="ES167">
         <v>0.5407743889249406</v>
       </c>
+      <c r="ET167">
+        <v>0.5407743889249406</v>
+      </c>
     </row>
-    <row r="168" spans="1:149">
+    <row r="168" spans="1:150">
       <c r="A168" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="CG168">
         <v>-0.3373491821102736</v>
@@ -66463,10 +66970,13 @@
       <c r="ES168">
         <v>-0.01075731497417266</v>
       </c>
+      <c r="ET168">
+        <v>-0.01075731497417266</v>
+      </c>
     </row>
-    <row r="169" spans="1:149">
+    <row r="169" spans="1:150">
       <c r="A169" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="CH169">
         <v>-0.2844562691596675</v>
@@ -66660,10 +67170,13 @@
       <c r="ES169">
         <v>0.2151694459386798</v>
       </c>
+      <c r="ET169">
+        <v>0.2151694459386798</v>
+      </c>
     </row>
-    <row r="170" spans="1:149">
+    <row r="170" spans="1:150">
       <c r="A170" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="CI170">
         <v>-0.3139862207927315</v>
@@ -66854,10 +67367,13 @@
       <c r="ES170">
         <v>0.1073537305421302</v>
       </c>
+      <c r="ET170">
+        <v>0.1073537305421302</v>
+      </c>
     </row>
-    <row r="171" spans="1:149">
+    <row r="171" spans="1:150">
       <c r="A171" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="CJ171">
         <v>-0.3608021799647745</v>
@@ -67045,10 +67561,13 @@
       <c r="ES171">
         <v>0.2037533512064319</v>
       </c>
+      <c r="ET171">
+        <v>0.2037533512064319</v>
+      </c>
     </row>
-    <row r="172" spans="1:149">
+    <row r="172" spans="1:150">
       <c r="A172" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="CK172">
         <v>-0.12628722994408</v>
@@ -67233,10 +67752,13 @@
       <c r="ES172">
         <v>-0.2996575342465766</v>
       </c>
+      <c r="ET172">
+        <v>-0.2996575342465766</v>
+      </c>
     </row>
-    <row r="173" spans="1:149">
+    <row r="173" spans="1:150">
       <c r="A173" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="CL173">
         <v>-0.1703233649732007</v>
@@ -67418,10 +67940,13 @@
       <c r="ES173">
         <v>-0.5581794761700257</v>
       </c>
+      <c r="ET173">
+        <v>-0.5581794761700257</v>
+      </c>
     </row>
-    <row r="174" spans="1:149">
+    <row r="174" spans="1:150">
       <c r="A174" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="CM174">
         <v>-0.06497206438053668</v>
@@ -67600,10 +68125,13 @@
       <c r="ES174">
         <v>1.165803108808288</v>
       </c>
+      <c r="ET174">
+        <v>1.165803108808288</v>
+      </c>
     </row>
-    <row r="175" spans="1:149">
+    <row r="175" spans="1:150">
       <c r="A175" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="CN175">
         <v>0.1305915191252485</v>
@@ -67779,10 +68307,13 @@
       <c r="ES175">
         <v>0.5121638924455868</v>
       </c>
+      <c r="ET175">
+        <v>0.5121638924455868</v>
+      </c>
     </row>
-    <row r="176" spans="1:149">
+    <row r="176" spans="1:150">
       <c r="A176" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="CO176">
         <v>0.3040734292842707</v>
@@ -67955,10 +68486,13 @@
       <c r="ES176">
         <v>0.1486199575371556</v>
       </c>
+      <c r="ET176">
+        <v>0.1486199575371556</v>
+      </c>
     </row>
-    <row r="177" spans="1:149">
+    <row r="177" spans="1:150">
       <c r="A177" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="CP177">
         <v>0.7707958028869695</v>
@@ -68128,10 +68662,13 @@
       <c r="ES177">
         <v>1.049395802416785</v>
       </c>
+      <c r="ET177">
+        <v>1.049395802416785</v>
+      </c>
     </row>
-    <row r="178" spans="1:149">
+    <row r="178" spans="1:150">
       <c r="A178" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="CQ178">
         <v>0.728485290145509</v>
@@ -68298,10 +68835,13 @@
       <c r="ES178">
         <v>-0.02097975453686774</v>
       </c>
+      <c r="ET178">
+        <v>-0.02097975453686774</v>
+      </c>
     </row>
-    <row r="179" spans="1:149">
+    <row r="179" spans="1:150">
       <c r="A179" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="CR179">
         <v>0.6982082002245201</v>
@@ -68465,10 +69005,13 @@
       <c r="ES179">
         <v>0.5560801594795941</v>
       </c>
+      <c r="ET179">
+        <v>0.5560801594795941</v>
+      </c>
     </row>
-    <row r="180" spans="1:149">
+    <row r="180" spans="1:150">
       <c r="A180" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CS180">
         <v>0.685593016150544</v>
@@ -68629,10 +69172,13 @@
       <c r="ES180">
         <v>0.7616861435726103</v>
       </c>
+      <c r="ET180">
+        <v>0.7616861435726103</v>
+      </c>
     </row>
-    <row r="181" spans="1:149">
+    <row r="181" spans="1:150">
       <c r="A181" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="CT181">
         <v>0.642517155860985</v>
@@ -68790,10 +69336,13 @@
       <c r="ES181">
         <v>-0.2174588381484869</v>
       </c>
+      <c r="ET181">
+        <v>-0.2174588381484869</v>
+      </c>
     </row>
-    <row r="182" spans="1:149">
+    <row r="182" spans="1:150">
       <c r="A182" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CU182">
         <v>0.3630944065379357</v>
@@ -68948,10 +69497,13 @@
       <c r="ES182">
         <v>0.5188875051888751</v>
       </c>
+      <c r="ET182">
+        <v>0.5188875051888751</v>
+      </c>
     </row>
-    <row r="183" spans="1:149">
+    <row r="183" spans="1:150">
       <c r="A183" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="CV183">
         <v>0.2884579956870195</v>
@@ -69103,10 +69655,13 @@
       <c r="ES183">
         <v>0.5368573198430684</v>
       </c>
+      <c r="ET183">
+        <v>0.5368573198430684</v>
+      </c>
     </row>
-    <row r="184" spans="1:149">
+    <row r="184" spans="1:150">
       <c r="A184" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="CW184">
         <v>0.3193273013225455</v>
@@ -69255,10 +69810,13 @@
       <c r="ES184">
         <v>0.5134524543027316</v>
       </c>
+      <c r="ET184">
+        <v>0.5134524543027316</v>
+      </c>
     </row>
-    <row r="185" spans="1:149">
+    <row r="185" spans="1:150">
       <c r="A185" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="CX185">
         <v>0.1981397788874456</v>
@@ -69404,10 +69962,13 @@
       <c r="ES185">
         <v>0.8786268900694724</v>
       </c>
+      <c r="ET185">
+        <v>0.8786268900694724</v>
+      </c>
     </row>
-    <row r="186" spans="1:149">
+    <row r="186" spans="1:150">
       <c r="A186" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="CY186">
         <v>0.2274130099267809</v>
@@ -69550,10 +70111,13 @@
       <c r="ES186">
         <v>0.2228073728985202</v>
       </c>
+      <c r="ET186">
+        <v>0.2228073728985202</v>
+      </c>
     </row>
-    <row r="187" spans="1:149">
+    <row r="187" spans="1:150">
       <c r="A187" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="CZ187">
         <v>0.2664625129919059</v>
@@ -69693,10 +70257,13 @@
       <c r="ES187">
         <v>0.3536782538399439</v>
       </c>
+      <c r="ET187">
+        <v>0.3536782538399439</v>
+      </c>
     </row>
-    <row r="188" spans="1:149">
+    <row r="188" spans="1:150">
       <c r="A188" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="DA188">
         <v>0.1749360396833936</v>
@@ -69833,10 +70400,13 @@
       <c r="ES188">
         <v>0.4631960527640658</v>
       </c>
+      <c r="ET188">
+        <v>0.4631960527640658</v>
+      </c>
     </row>
-    <row r="189" spans="1:149">
+    <row r="189" spans="1:150">
       <c r="A189" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="DB189">
         <v>0.1678009349620006</v>
@@ -69970,10 +70540,13 @@
       <c r="ES189">
         <v>1.292973839831619</v>
       </c>
+      <c r="ET189">
+        <v>1.292973839831619</v>
+      </c>
     </row>
-    <row r="190" spans="1:149">
+    <row r="190" spans="1:150">
       <c r="A190" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="DC190">
         <v>0.2262235086062239</v>
@@ -70104,10 +70677,13 @@
       <c r="ES190">
         <v>0.7124480506629713</v>
       </c>
+      <c r="ET190">
+        <v>0.7124480506629713</v>
+      </c>
     </row>
-    <row r="191" spans="1:149">
+    <row r="191" spans="1:150">
       <c r="A191" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="DD191">
         <v>0.2448105132036734</v>
@@ -70235,10 +70811,13 @@
       <c r="ES191">
         <v>0.7958341520927513</v>
       </c>
+      <c r="ET191">
+        <v>0.7958341520927513</v>
+      </c>
     </row>
-    <row r="192" spans="1:149">
+    <row r="192" spans="1:150">
       <c r="A192" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="DE192">
         <v>0.3577719600750547</v>
@@ -70363,10 +70942,13 @@
       <c r="ES192">
         <v>1.01374402963251</v>
       </c>
+      <c r="ET192">
+        <v>1.01374402963251</v>
+      </c>
     </row>
-    <row r="193" spans="1:149">
+    <row r="193" spans="1:150">
       <c r="A193" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="DF193">
         <v>0.4163265652198342</v>
@@ -70488,10 +71070,13 @@
       <c r="ES193">
         <v>-0.5500337740036604</v>
       </c>
+      <c r="ET193">
+        <v>-0.5500337740036604</v>
+      </c>
     </row>
-    <row r="194" spans="1:149">
+    <row r="194" spans="1:150">
       <c r="A194" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="DG194">
         <v>0.3496473259638563</v>
@@ -70610,10 +71195,13 @@
       <c r="ES194">
         <v>0.7859499320784032</v>
       </c>
+      <c r="ET194">
+        <v>0.7859499320784032</v>
+      </c>
     </row>
-    <row r="195" spans="1:149">
+    <row r="195" spans="1:150">
       <c r="A195" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="DH195">
         <v>0.3788614630760844</v>
@@ -70729,10 +71317,13 @@
       <c r="ES195">
         <v>-0.654664484451725</v>
       </c>
+      <c r="ET195">
+        <v>-0.654664484451725</v>
+      </c>
     </row>
-    <row r="196" spans="1:149">
+    <row r="196" spans="1:150">
       <c r="A196" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="DI196">
         <v>0.3975045438070423</v>
@@ -70845,10 +71436,13 @@
       <c r="ES196">
         <v>0.4457796298090977</v>
       </c>
+      <c r="ET196">
+        <v>0.4457796298090977</v>
+      </c>
     </row>
-    <row r="197" spans="1:149">
+    <row r="197" spans="1:150">
       <c r="A197" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DJ197">
         <v>0.3569589506680418</v>
@@ -70958,10 +71552,13 @@
       <c r="ES197">
         <v>0.6560540279787676</v>
       </c>
+      <c r="ET197">
+        <v>0.6560540279787676</v>
+      </c>
     </row>
-    <row r="198" spans="1:149">
+    <row r="198" spans="1:150">
       <c r="A198" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="DK198">
         <v>0.41093607707931</v>
@@ -71068,10 +71665,13 @@
       <c r="ES198">
         <v>0.05750982459503716</v>
       </c>
+      <c r="ET198">
+        <v>0.05750982459503716</v>
+      </c>
     </row>
-    <row r="199" spans="1:149">
+    <row r="199" spans="1:150">
       <c r="A199" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="DL199">
         <v>0.4450648425140112</v>
@@ -71175,10 +71775,13 @@
       <c r="ES199">
         <v>0.3831784653702516</v>
       </c>
+      <c r="ET199">
+        <v>0.3831784653702516</v>
+      </c>
     </row>
-    <row r="200" spans="1:149">
+    <row r="200" spans="1:150">
       <c r="A200" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="DM200">
         <v>0.4478334266741417</v>
@@ -71279,10 +71882,13 @@
       <c r="ES200">
         <v>-0.3340013360053521</v>
       </c>
+      <c r="ET200">
+        <v>-0.3340013360053521</v>
+      </c>
     </row>
-    <row r="201" spans="1:149">
+    <row r="201" spans="1:150">
       <c r="A201" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="DN201">
         <v>0.5387779590805554</v>
@@ -71380,10 +71986,13 @@
       <c r="ES201">
         <v>-2.029873611643053</v>
       </c>
+      <c r="ET201">
+        <v>-2.029873611643053</v>
+      </c>
     </row>
-    <row r="202" spans="1:149">
+    <row r="202" spans="1:150">
       <c r="A202" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="DO202">
         <v>0.5469815053509908</v>
@@ -71478,10 +72087,13 @@
       <c r="ES202">
         <v>-8.874120406567631</v>
       </c>
+      <c r="ET202">
+        <v>-8.874120406567631</v>
+      </c>
     </row>
-    <row r="203" spans="1:149">
+    <row r="203" spans="1:150">
       <c r="A203" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="DP203">
         <v>0.5443919446995226</v>
@@ -71573,10 +72185,13 @@
       <c r="ES203">
         <v>8.67653367653368</v>
       </c>
+      <c r="ET203">
+        <v>8.67653367653368</v>
+      </c>
     </row>
-    <row r="204" spans="1:149">
+    <row r="204" spans="1:150">
       <c r="A204" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="DQ204">
         <v>0.5509252772825745</v>
@@ -71665,10 +72280,13 @@
       <c r="ES204">
         <v>0.9671370768775328</v>
       </c>
+      <c r="ET204">
+        <v>0.9671370768775328</v>
+      </c>
     </row>
-    <row r="205" spans="1:149">
+    <row r="205" spans="1:150">
       <c r="A205" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="DR205">
         <v>0.4397085823035038</v>
@@ -71754,10 +72372,13 @@
       <c r="ES205">
         <v>-0.6157755840093788</v>
       </c>
+      <c r="ET205">
+        <v>-0.6157755840093788</v>
+      </c>
     </row>
-    <row r="206" spans="1:149">
+    <row r="206" spans="1:150">
       <c r="A206" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="DS206">
         <v>0.3979624383165997</v>
@@ -71840,10 +72461,13 @@
       <c r="ES206">
         <v>2.350511408339877</v>
       </c>
+      <c r="ET206">
+        <v>2.350511408339877</v>
+      </c>
     </row>
-    <row r="207" spans="1:149">
+    <row r="207" spans="1:150">
       <c r="A207" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="DT207">
         <v>0.4232775010493146</v>
@@ -71923,10 +72547,13 @@
       <c r="ES207">
         <v>0.08648025367541406</v>
       </c>
+      <c r="ET207">
+        <v>0.08648025367541406</v>
+      </c>
     </row>
-    <row r="208" spans="1:149">
+    <row r="208" spans="1:150">
       <c r="A208" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="DU208">
         <v>0.4273161660922285</v>
@@ -72003,10 +72630,13 @@
       <c r="ES208">
         <v>0.5376344086021527</v>
       </c>
+      <c r="ET208">
+        <v>0.5376344086021527</v>
+      </c>
     </row>
-    <row r="209" spans="1:149">
+    <row r="209" spans="1:150">
       <c r="A209" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="DV209">
         <v>0.3084390294012061</v>
@@ -72080,10 +72710,13 @@
       <c r="ES209">
         <v>0.6779984721161268</v>
       </c>
+      <c r="ET209">
+        <v>0.6779984721161268</v>
+      </c>
     </row>
-    <row r="210" spans="1:149">
+    <row r="210" spans="1:150">
       <c r="A210" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="DW210">
         <v>0.2675153907458341</v>
@@ -72154,10 +72787,13 @@
       <c r="ES210">
         <v>0.1517594612539093</v>
       </c>
+      <c r="ET210">
+        <v>0.1517594612539093</v>
+      </c>
     </row>
-    <row r="211" spans="1:149">
+    <row r="211" spans="1:150">
       <c r="A211" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="DX211">
         <v>-0.04740977767513747</v>
@@ -72225,10 +72861,13 @@
       <c r="ES211">
         <v>0.2935884079931833</v>
       </c>
+      <c r="ET211">
+        <v>0.2935884079931833</v>
+      </c>
     </row>
-    <row r="212" spans="1:149">
+    <row r="212" spans="1:150">
       <c r="A212" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DY212">
         <v>-1.103784737857667</v>
@@ -72293,10 +72932,13 @@
       <c r="ES212">
         <v>-0.3493862134088806</v>
       </c>
+      <c r="ET212">
+        <v>-0.3493862134088806</v>
+      </c>
     </row>
-    <row r="213" spans="1:149">
+    <row r="213" spans="1:150">
       <c r="A213" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DZ213">
         <v>-0.2331383618867365</v>
@@ -72358,10 +73000,13 @@
       <c r="ES213">
         <v>-0.473798919738463</v>
       </c>
+      <c r="ET213">
+        <v>-0.473798919738463</v>
+      </c>
     </row>
-    <row r="214" spans="1:149">
+    <row r="214" spans="1:150">
       <c r="A214" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="EA214">
         <v>-0.24378957821662</v>
@@ -72420,10 +73065,13 @@
       <c r="ES214">
         <v>-0.07616871370084576</v>
       </c>
+      <c r="ET214">
+        <v>-0.07616871370084576</v>
+      </c>
     </row>
-    <row r="215" spans="1:149">
+    <row r="215" spans="1:150">
       <c r="A215" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="EB215">
         <v>-0.3524041104327608</v>
@@ -72479,10 +73127,13 @@
       <c r="ES215">
         <v>0</v>
       </c>
+      <c r="ET215">
+        <v>0</v>
+      </c>
     </row>
-    <row r="216" spans="1:149">
+    <row r="216" spans="1:150">
       <c r="A216" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="EC216">
         <v>-0.1443023894650218</v>
@@ -72535,10 +73186,13 @@
       <c r="ES216">
         <v>-0.2763220581229216</v>
       </c>
+      <c r="ET216">
+        <v>-0.2763220581229216</v>
+      </c>
     </row>
-    <row r="217" spans="1:149">
+    <row r="217" spans="1:150">
       <c r="A217" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="ED217">
         <v>-0.02780421909122137</v>
@@ -72588,10 +73242,13 @@
       <c r="ES217">
         <v>-0.1051022358111976</v>
       </c>
+      <c r="ET217">
+        <v>-0.1051022358111976</v>
+      </c>
     </row>
-    <row r="218" spans="1:149">
+    <row r="218" spans="1:150">
       <c r="A218" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="EE218">
         <v>0.01768919490591373</v>
@@ -72638,10 +73295,13 @@
       <c r="ES218">
         <v>-0.2582496413199388</v>
       </c>
+      <c r="ET218">
+        <v>-0.2582496413199388</v>
+      </c>
     </row>
-    <row r="219" spans="1:149">
+    <row r="219" spans="1:150">
       <c r="A219" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="EF219">
         <v>0.0001350735459492769</v>
@@ -72685,10 +73345,13 @@
       <c r="ES219">
         <v>0.01917913310317992</v>
       </c>
+      <c r="ET219">
+        <v>0.01917913310317992</v>
+      </c>
     </row>
-    <row r="220" spans="1:149">
+    <row r="220" spans="1:150">
       <c r="A220" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="EG220">
         <v>0.08824239249695551</v>
@@ -72729,10 +73392,13 @@
       <c r="ES220">
         <v>0.1821668264621263</v>
       </c>
+      <c r="ET220">
+        <v>0.1821668264621263</v>
+      </c>
     </row>
-    <row r="221" spans="1:149">
+    <row r="221" spans="1:150">
       <c r="A221" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="EH221">
         <v>0.2668170259847391</v>
@@ -72770,10 +73436,13 @@
       <c r="ES221">
         <v>0.3062494018566441</v>
       </c>
+      <c r="ET221">
+        <v>0.3062494018566441</v>
+      </c>
     </row>
-    <row r="222" spans="1:149">
+    <row r="222" spans="1:150">
       <c r="A222" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="EI222">
         <v>1.178844253737389</v>
@@ -72808,10 +73477,13 @@
       <c r="ES222">
         <v>-0.2766911554241067</v>
       </c>
+      <c r="ET222">
+        <v>-0.2099036351493167</v>
+      </c>
     </row>
-    <row r="223" spans="1:149">
+    <row r="223" spans="1:150">
       <c r="A223" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="EJ223">
         <v>0.2348700177716323</v>
@@ -72843,10 +73515,13 @@
       <c r="ES223">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET223">
+        <v>0</v>
+      </c>
     </row>
-    <row r="224" spans="1:149">
+    <row r="224" spans="1:150">
       <c r="A224" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="EK224">
         <v>0.2388379152847414</v>
@@ -72875,10 +73550,13 @@
       <c r="ES224">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET224">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="225" spans="1:149">
+    <row r="225" spans="1:150">
       <c r="A225" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="EL225">
         <v>0.3744780054549828</v>
@@ -72904,10 +73582,13 @@
       <c r="ES225">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET225">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="226" spans="1:149">
+    <row r="226" spans="1:150">
       <c r="A226" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="EM226">
         <v>0.1336718235993181</v>
@@ -72930,10 +73611,13 @@
       <c r="ES226">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET226">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="227" spans="1:149">
+    <row r="227" spans="1:150">
       <c r="A227" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="EN227">
         <v>0.08834060834722172</v>
@@ -72953,10 +73637,13 @@
       <c r="ES227">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET227">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="228" spans="1:149">
+    <row r="228" spans="1:150">
       <c r="A228" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="EO228">
         <v>0.02147918641116785</v>
@@ -72973,10 +73660,13 @@
       <c r="ES228">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET228">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="229" spans="1:149">
+    <row r="229" spans="1:150">
       <c r="A229" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="EP229">
         <v>-0.00810701594554874</v>
@@ -72990,10 +73680,13 @@
       <c r="ES229">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET229">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="230" spans="1:149">
+    <row r="230" spans="1:150">
       <c r="A230" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="EQ230">
         <v>-0.02625767267518964</v>
@@ -73004,10 +73697,13 @@
       <c r="ES230">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET230">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="231" spans="1:149">
+    <row r="231" spans="1:150">
       <c r="A231" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="ER231">
         <v>-0.04428949692388896</v>
@@ -73015,13 +73711,27 @@
       <c r="ES231">
         <v>-0.09587373626955231</v>
       </c>
+      <c r="ET231">
+        <v>-0.04181509226822702</v>
+      </c>
     </row>
-    <row r="232" spans="1:149">
+    <row r="232" spans="1:150">
       <c r="A232" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="ES232">
         <v>-0.09587373626955231</v>
+      </c>
+      <c r="ET232">
+        <v>-0.04181509226822702</v>
+      </c>
+    </row>
+    <row r="233" spans="1:150">
+      <c r="A233" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="ET233">
+        <v>-0.04181509226822702</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/1_Naive_Forecaster_Outputs/Results_AVERAGE_10_9/Real_and_Predicted_QoQ_AVERAGE_10_9.xlsx
+++ b/1_Result_Tables/1_Naive_Forecaster_Outputs/Results_AVERAGE_10_9/Real_and_Predicted_QoQ_AVERAGE_10_9.xlsx
@@ -440,9 +440,6 @@
   </si>
   <si>
     <t>qoq_2025_03</t>
-  </si>
-  <si>
-    <t>1970-Q2</t>
   </si>
   <si>
     <t>1970-Q3</t>
@@ -1137,6 +1134,9 @@
   <si>
     <t>2028-Q1</t>
   </si>
+  <si>
+    <t>2028-Q2</t>
+  </si>
 </sst>
 </file>
 
